--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="726">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -86,10 +86,10 @@
     <t xml:space="preserve">新天地</t>
   </si>
   <si>
-    <t xml:space="preserve">You are saved by a pair of travelers called Ashland and Fiama when you lost consciousness in the woods. The man who serves Mysilia handed you a piece of contract paper, which, according to him, you can read on any unoccupied map to claim the land.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森で気を失ったあなたは、エイシュランドとフィアマと名乗る旅の二人組に助けられた。ミシリアに仕えるエイシュランドから、あなたは一枚の契約書を受け取った。どの勢力にも属していないマップ上で契約書を読むことで、その土地の権利を獲得できるようだ。</t>
+    <t xml:space="preserve">Let's claim the land by reading the deed obtained from Ashland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エイシュランドから受け取った土地の権利書を呼んで、土地を獲得しよう。</t>
   </si>
   <si>
     <t xml:space="preserve">home1</t>
@@ -1750,6 +1750,9 @@
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.65</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beta 22.90</t>
   </si>
   <si>
@@ -1942,7 +1945,7 @@
     <t xml:space="preserve">테스트</t>
   </si>
   <si>
-    <t xml:space="preserve">여동생을 찾아가 줘</t>
+    <t xml:space="preserve">여동생 찾아가기</t>
   </si>
   <si>
     <t xml:space="preserve">길드 오더 (전사)</t>
@@ -2016,7 +2019,7 @@
 작은 선행</t>
   </si>
   <si>
-    <t xml:space="preserve">맘에 안드는 종족</t>
+    <t xml:space="preserve">맘에 안 드는 종족</t>
   </si>
   <si>
     <t xml:space="preserve">전쟁이다!</t>
@@ -2105,7 +2108,7 @@
     <t xml:space="preserve">당신은 긴 여행 끝에 노스티리스에 도착했다. 이 새로운 낙원에 무엇이 기다리고 있는지는 아직 알 수 없다. 당분간은 이곳 생활에 적응하고, 삶을 유지하는 것이 목표가 될 것이다.</t>
   </si>
   <si>
-    <t xml:space="preserve">숲에서 정신을 잃은 당신은 에이슈란드와 피아마라는 이름의 2인조 여행자의 도움을 받았다. 미실리아 출신의 에이슈란드에게서 당신은 계약서를 한 장 받았다. 어느 세력에도 속하지 않는 맵에서 해당 계약서를 읽으면 그 토지의 권리를 획득할 수 있을 것이다.</t>
+    <t xml:space="preserve">에이슈란드가 준 권리서를 읽어서 토지를 얻자.</t>
   </si>
   <si>
     <t xml:space="preserve">당신은 권리서를 읽고 땅을 손에 넣었다. 에이슈란드에게 보고하자.</t>
@@ -2177,7 +2180,7 @@
     <t xml:space="preserve">행방불명된 로이텔을 찾아달라는 패리스의 부탁을 받았다. 오르비나 와인을 한번 더 마시고 싶다고, 로이텔은 항상 그런 말을 했었는데...</t>
   </si>
   <si>
-    <t xml:space="preserve">|로이텔의 빚 2천만 오렌을 갚기를 도와주겠다는 약속을 했다. 로이텔에게서 빚 변제서를 받아 납세함에 넣자.</t>
+    <t xml:space="preserve">|로이텔의 빚 2000만 오렌을 갚는 걸 도와주겠다고 약속했다. 로이텔에게서 빚 변제서를 받아 납세 상자에 넣자.</t>
   </si>
   <si>
     <t xml:space="preserve">무엇을 하더라도 일손이 더 필요하겠구만.|주민을 한 명 리크루트하자.</t>
@@ -2292,7 +2295,7 @@
     <t xml:space="preserve">모큐.</t>
   </si>
   <si>
-    <t xml:space="preserve">말씀드릴 게 있습니다.|리사나스의 정보에 대해, 패리스는 여동생인 시오르시아를 찾아가 보라는 조언을 해 주었다. 시오르시아는 홈 남서쪽에 위치한 오르비나라는 마을에 머물고 있다고 한다.</t>
+    <t xml:space="preserve">말씀드릴 게 있습니다.|리사나스의 정보에 대해, 패리스는 여동생인 시오루시아를 찾아가 보라는 조언을 해 주었다. 시오루시아는 홈 남서쪽에 위치한 오르비나라는 마을에 머물고 있다고 한다.</t>
   </si>
   <si>
     <t xml:space="preserve">전사 길드의 파수꾼에게서 입단 시험의 내용을 전달받았다. 시험에 합격하기 위해서는 이크를 여러 마리 쓰러뜨려야 한다.</t>
@@ -2597,7 +2600,7 @@
         <v>518</v>
       </c>
       <c r="C3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2606,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2624,10 +2627,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2636,7 +2639,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2659,7 +2662,7 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2680,7 +2683,7 @@
         <v>518</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2689,7 +2692,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2707,10 +2710,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2719,7 +2722,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2737,12 +2740,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2760,10 +2763,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2772,7 +2775,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -2790,12 +2793,12 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2813,12 +2816,12 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2836,12 +2839,12 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
@@ -2859,12 +2862,12 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -2882,12 +2885,12 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
@@ -2905,12 +2908,12 @@
         <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2928,12 +2931,12 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -2951,12 +2954,12 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G17" t="s">
         <v>68</v>
@@ -2974,12 +2977,12 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -2997,7 +3000,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -3015,7 +3018,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -3033,10 +3036,10 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
@@ -3045,7 +3048,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G21" t="s">
         <v>79</v>
@@ -3063,12 +3066,12 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G22" t="s">
         <v>82</v>
@@ -3089,7 +3092,7 @@
         <v>518</v>
       </c>
       <c r="C23" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D23" t="s">
         <v>85</v>
@@ -3098,7 +3101,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G23" t="s">
         <v>87</v>
@@ -3109,7 +3112,7 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M23" t="s">
         <v>89</v>
@@ -3126,7 +3129,7 @@
         <v>518</v>
       </c>
       <c r="C24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D24" t="s">
         <v>92</v>
@@ -3135,7 +3138,7 @@
         <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G24" t="s">
         <v>94</v>
@@ -3163,7 +3166,7 @@
         <v>518</v>
       </c>
       <c r="C25" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
@@ -3172,7 +3175,7 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G25" t="s">
         <v>101</v>
@@ -3193,7 +3196,7 @@
         <v>518</v>
       </c>
       <c r="C26" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
@@ -3202,7 +3205,7 @@
         <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G26" t="s">
         <v>106</v>
@@ -3223,7 +3226,7 @@
         <v>518</v>
       </c>
       <c r="C27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
@@ -3232,7 +3235,7 @@
         <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G27" t="s">
         <v>111</v>
@@ -3250,10 +3253,10 @@
         <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C28" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D28" t="s">
         <v>114</v>
@@ -3262,7 +3265,7 @@
         <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G28" t="s">
         <v>116</v>
@@ -3280,10 +3283,10 @@
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C29" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D29" t="s">
         <v>119</v>
@@ -3292,7 +3295,7 @@
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G29" t="s">
         <v>121</v>
@@ -3310,10 +3313,10 @@
         <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C30" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D30" t="s">
         <v>124</v>
@@ -3322,7 +3325,7 @@
         <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G30" t="s">
         <v>126</v>
@@ -3364,7 +3367,7 @@
         <v>518</v>
       </c>
       <c r="C32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D32" t="s">
         <v>131</v>
@@ -3373,7 +3376,7 @@
         <v>132</v>
       </c>
       <c r="F32" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
@@ -3394,7 +3397,7 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
@@ -3426,10 +3429,10 @@
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C35" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
@@ -3438,7 +3441,7 @@
         <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G35" t="s">
         <v>140</v>
@@ -3475,7 +3478,7 @@
         <v>518</v>
       </c>
       <c r="C37" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D37" t="s">
         <v>144</v>
@@ -3484,7 +3487,7 @@
         <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G37" t="s">
         <v>146</v>
@@ -3507,7 +3510,7 @@
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G38" t="s">
         <v>149</v>
@@ -3530,7 +3533,7 @@
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G39" t="s">
         <v>152</v>
@@ -3564,10 +3567,10 @@
         <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C41" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D41" t="s">
         <v>156</v>
@@ -3576,7 +3579,7 @@
         <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G41" t="s">
         <v>158</v>
@@ -3594,7 +3597,7 @@
         <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3610,10 +3613,10 @@
         <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C43" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D43" t="s">
         <v>162</v>
@@ -3622,7 +3625,7 @@
         <v>163</v>
       </c>
       <c r="F43" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G43" t="s">
         <v>106</v>
@@ -3640,10 +3643,10 @@
         <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C44" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D44" t="s">
         <v>166</v>
@@ -3652,7 +3655,7 @@
         <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G44" t="s">
         <v>106</v>
@@ -3670,10 +3673,10 @@
         <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C45" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D45" t="s">
         <v>169</v>
@@ -3682,7 +3685,7 @@
         <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G45" t="s">
         <v>171</v>
@@ -3700,12 +3703,12 @@
         <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G46" t="s">
         <v>174</v>
@@ -3723,7 +3726,7 @@
         <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -3739,10 +3742,10 @@
         <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C48" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D48" t="s">
         <v>178</v>
@@ -3751,7 +3754,7 @@
         <v>179</v>
       </c>
       <c r="F48" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G48" t="s">
         <v>180</v>
@@ -3769,12 +3772,12 @@
         <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G49" t="s">
         <v>183</v>
@@ -3792,12 +3795,12 @@
         <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G50" t="s">
         <v>186</v>
@@ -3834,7 +3837,7 @@
         <v>518</v>
       </c>
       <c r="C52" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D52" t="s">
         <v>190</v>
@@ -3843,7 +3846,7 @@
         <v>191</v>
       </c>
       <c r="F52" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G52" t="s">
         <v>192</v>
@@ -3866,7 +3869,7 @@
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G53" t="s">
         <v>195</v>
@@ -3889,7 +3892,7 @@
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G54" t="s">
         <v>198</v>
@@ -3912,7 +3915,7 @@
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G55" t="s">
         <v>201</v>
@@ -3935,7 +3938,7 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G56" t="s">
         <v>201</v>
@@ -3958,7 +3961,7 @@
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G57" t="s">
         <v>205</v>
@@ -3995,7 +3998,7 @@
         <v>518</v>
       </c>
       <c r="C59" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D59" t="s">
         <v>209</v>
@@ -4004,7 +4007,7 @@
         <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G59" t="s">
         <v>211</v>
@@ -4027,7 +4030,7 @@
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G60" t="s">
         <v>214</v>
@@ -4061,10 +4064,10 @@
         <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C62" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D62" t="s">
         <v>218</v>
@@ -4073,7 +4076,7 @@
         <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G62" t="s">
         <v>220</v>
@@ -4107,10 +4110,10 @@
         <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C64" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D64" t="s">
         <v>224</v>
@@ -4119,7 +4122,7 @@
         <v>225</v>
       </c>
       <c r="F64" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G64" t="s">
         <v>226</v>
@@ -4137,10 +4140,10 @@
         <v>228</v>
       </c>
       <c r="B65" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C65" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D65" t="s">
         <v>229</v>
@@ -4149,7 +4152,7 @@
         <v>230</v>
       </c>
       <c r="F65" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G65" t="s">
         <v>231</v>
@@ -4167,7 +4170,7 @@
         <v>233</v>
       </c>
       <c r="B66" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -4183,10 +4186,10 @@
         <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C67" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D67" t="s">
         <v>235</v>
@@ -4195,7 +4198,7 @@
         <v>236</v>
       </c>
       <c r="F67" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G67" t="s">
         <v>237</v>
@@ -4213,7 +4216,7 @@
         <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -4229,10 +4232,10 @@
         <v>240</v>
       </c>
       <c r="B69" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C69" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D69" t="s">
         <v>241</v>
@@ -4241,7 +4244,7 @@
         <v>242</v>
       </c>
       <c r="F69" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G69" t="s">
         <v>243</v>
@@ -4259,10 +4262,10 @@
         <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C70" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D70" t="s">
         <v>246</v>
@@ -4271,7 +4274,7 @@
         <v>247</v>
       </c>
       <c r="F70" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G70" t="s">
         <v>248</v>
@@ -4289,10 +4292,10 @@
         <v>250</v>
       </c>
       <c r="B71" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C71" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D71" t="s">
         <v>251</v>
@@ -4301,7 +4304,7 @@
         <v>252</v>
       </c>
       <c r="F71" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G71" t="s">
         <v>253</v>
@@ -4319,10 +4322,10 @@
         <v>255</v>
       </c>
       <c r="B72" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C72" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D72" t="s">
         <v>256</v>
@@ -4331,7 +4334,7 @@
         <v>257</v>
       </c>
       <c r="F72" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G72" t="s">
         <v>258</v>
@@ -4349,10 +4352,10 @@
         <v>260</v>
       </c>
       <c r="B73" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C73" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D73" t="s">
         <v>261</v>
@@ -4361,7 +4364,7 @@
         <v>262</v>
       </c>
       <c r="F73" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G73" t="s">
         <v>263</v>
@@ -4379,10 +4382,10 @@
         <v>265</v>
       </c>
       <c r="B74" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C74" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D74" t="s">
         <v>266</v>
@@ -4391,7 +4394,7 @@
         <v>267</v>
       </c>
       <c r="F74" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G74" t="s">
         <v>268</v>
@@ -4409,10 +4412,10 @@
         <v>270</v>
       </c>
       <c r="B75" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C75" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D75" t="s">
         <v>271</v>
@@ -4421,7 +4424,7 @@
         <v>272</v>
       </c>
       <c r="F75" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G75" t="s">
         <v>273</v>
@@ -4439,10 +4442,10 @@
         <v>275</v>
       </c>
       <c r="B76" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C76" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D76" t="s">
         <v>276</v>
@@ -4451,7 +4454,7 @@
         <v>277</v>
       </c>
       <c r="F76" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G76" t="s">
         <v>278</v>
@@ -4469,10 +4472,10 @@
         <v>280</v>
       </c>
       <c r="B77" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C77" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D77" t="s">
         <v>281</v>
@@ -4481,7 +4484,7 @@
         <v>282</v>
       </c>
       <c r="F77" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G77" t="s">
         <v>283</v>
@@ -4499,10 +4502,10 @@
         <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C78" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D78" t="s">
         <v>286</v>
@@ -4511,7 +4514,7 @@
         <v>287</v>
       </c>
       <c r="F78" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G78" t="s">
         <v>288</v>
@@ -4529,10 +4532,10 @@
         <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C79" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D79" t="s">
         <v>291</v>
@@ -4541,7 +4544,7 @@
         <v>292</v>
       </c>
       <c r="F79" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G79" t="s">
         <v>293</v>
@@ -4559,10 +4562,10 @@
         <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C80" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D80" t="s">
         <v>296</v>
@@ -4571,7 +4574,7 @@
         <v>297</v>
       </c>
       <c r="F80" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G80" t="s">
         <v>278</v>
@@ -4589,10 +4592,10 @@
         <v>298</v>
       </c>
       <c r="B81" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C81" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D81" t="s">
         <v>299</v>
@@ -4601,7 +4604,7 @@
         <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G81" t="s">
         <v>301</v>
@@ -4619,10 +4622,10 @@
         <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C82" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D82" t="s">
         <v>304</v>
@@ -4631,7 +4634,7 @@
         <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G82" t="s">
         <v>306</v>
@@ -4649,10 +4652,10 @@
         <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C83" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D83" t="s">
         <v>309</v>
@@ -4661,7 +4664,7 @@
         <v>310</v>
       </c>
       <c r="F83" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G83" t="s">
         <v>311</v>
@@ -4679,10 +4682,10 @@
         <v>313</v>
       </c>
       <c r="B84" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C84" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D84" t="s">
         <v>314</v>
@@ -4691,7 +4694,7 @@
         <v>315</v>
       </c>
       <c r="F84" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G84" t="s">
         <v>311</v>
@@ -4709,10 +4712,10 @@
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C85" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D85" t="s">
         <v>314</v>
@@ -4721,7 +4724,7 @@
         <v>315</v>
       </c>
       <c r="F85" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G85" t="s">
         <v>311</v>
@@ -4739,10 +4742,10 @@
         <v>317</v>
       </c>
       <c r="B86" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C86" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D86" t="s">
         <v>318</v>
@@ -4751,7 +4754,7 @@
         <v>319</v>
       </c>
       <c r="F86" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
@@ -4767,10 +4770,10 @@
         <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C87" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D87" t="s">
         <v>322</v>
@@ -4797,10 +4800,10 @@
         <v>325</v>
       </c>
       <c r="B88" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C88" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D88" t="s">
         <v>326</v>
@@ -4827,10 +4830,10 @@
         <v>328</v>
       </c>
       <c r="B89" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C89" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D89" t="s">
         <v>329</v>
@@ -4857,10 +4860,10 @@
         <v>331</v>
       </c>
       <c r="B90" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C90" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D90" t="s">
         <v>332</v>
@@ -4890,7 +4893,7 @@
         <v>518</v>
       </c>
       <c r="C91" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D91" t="s">
         <v>335</v>
@@ -4899,7 +4902,7 @@
         <v>336</v>
       </c>
       <c r="F91" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G91" t="s">
         <v>337</v>
@@ -4922,7 +4925,7 @@
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G92" t="s">
         <v>340</v>
@@ -4940,10 +4943,10 @@
         <v>342</v>
       </c>
       <c r="B93" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C93" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D93" t="s">
         <v>343</v>
@@ -4952,7 +4955,7 @@
         <v>344</v>
       </c>
       <c r="F93" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G93" t="s">
         <v>345</v>
@@ -4973,7 +4976,7 @@
         <v>518</v>
       </c>
       <c r="C94" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D94" t="s">
         <v>348</v>
@@ -4982,7 +4985,7 @@
         <v>349</v>
       </c>
       <c r="F94" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G94" t="s">
         <v>350</v>
@@ -5005,7 +5008,7 @@
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G95" t="s">
         <v>353</v>
@@ -5023,10 +5026,10 @@
         <v>355</v>
       </c>
       <c r="B96" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C96" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D96" t="s">
         <v>356</v>
@@ -5035,7 +5038,7 @@
         <v>357</v>
       </c>
       <c r="F96" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G96" t="s">
         <v>358</v>
@@ -5056,7 +5059,7 @@
         <v>518</v>
       </c>
       <c r="C97" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D97" t="s">
         <v>361</v>
@@ -5065,7 +5068,7 @@
         <v>362</v>
       </c>
       <c r="F97" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G97" t="s">
         <v>363</v>
@@ -5088,7 +5091,7 @@
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G98" t="s">
         <v>366</v>
@@ -5106,10 +5109,10 @@
         <v>368</v>
       </c>
       <c r="B99" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C99" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D99" t="s">
         <v>369</v>
@@ -5118,7 +5121,7 @@
         <v>370</v>
       </c>
       <c r="F99" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G99" t="s">
         <v>371</v>
@@ -5136,10 +5139,10 @@
         <v>373</v>
       </c>
       <c r="B100" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C100" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D100" t="s">
         <v>374</v>
@@ -5148,7 +5151,7 @@
         <v>375</v>
       </c>
       <c r="F100" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G100" t="s">
         <v>376</v>
@@ -5166,12 +5169,12 @@
         <v>378</v>
       </c>
       <c r="B101" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G101" t="s">
         <v>379</v>
@@ -5189,10 +5192,10 @@
         <v>381</v>
       </c>
       <c r="B102" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C102" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D102" t="s">
         <v>382</v>
@@ -5201,7 +5204,7 @@
         <v>383</v>
       </c>
       <c r="F102" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G102" t="s">
         <v>384</v>
@@ -5219,10 +5222,10 @@
         <v>386</v>
       </c>
       <c r="B103" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C103" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D103" t="s">
         <v>387</v>
@@ -5231,7 +5234,7 @@
         <v>388</v>
       </c>
       <c r="F103" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G103" t="s">
         <v>389</v>
@@ -5249,10 +5252,10 @@
         <v>391</v>
       </c>
       <c r="B104" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C104" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D104" t="s">
         <v>392</v>
@@ -5261,7 +5264,7 @@
         <v>393</v>
       </c>
       <c r="F104" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G104" t="s">
         <v>394</v>
@@ -5279,10 +5282,10 @@
         <v>396</v>
       </c>
       <c r="B105" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C105" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D105" t="s">
         <v>397</v>
@@ -5291,7 +5294,7 @@
         <v>398</v>
       </c>
       <c r="F105" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G105" t="s">
         <v>399</v>
@@ -5309,10 +5312,10 @@
         <v>401</v>
       </c>
       <c r="B106" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C106" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D106" t="s">
         <v>402</v>
@@ -5321,7 +5324,7 @@
         <v>403</v>
       </c>
       <c r="F106" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G106" t="s">
         <v>404</v>
@@ -5339,10 +5342,10 @@
         <v>406</v>
       </c>
       <c r="B107" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C107" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D107" t="s">
         <v>407</v>
@@ -5351,7 +5354,7 @@
         <v>408</v>
       </c>
       <c r="F107" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G107" t="s">
         <v>409</v>
@@ -5369,10 +5372,10 @@
         <v>411</v>
       </c>
       <c r="B108" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C108" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D108" t="s">
         <v>412</v>
@@ -5381,7 +5384,7 @@
         <v>413</v>
       </c>
       <c r="F108" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G108" t="s">
         <v>414</v>
@@ -5399,10 +5402,10 @@
         <v>416</v>
       </c>
       <c r="B109" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C109" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D109" t="s">
         <v>417</v>
@@ -5411,7 +5414,7 @@
         <v>418</v>
       </c>
       <c r="F109" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G109" t="s">
         <v>419</v>
@@ -5429,10 +5432,10 @@
         <v>421</v>
       </c>
       <c r="B110" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C110" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D110" t="s">
         <v>422</v>
@@ -5441,7 +5444,7 @@
         <v>423</v>
       </c>
       <c r="F110" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G110" t="s">
         <v>424</v>
@@ -5459,10 +5462,10 @@
         <v>426</v>
       </c>
       <c r="B111" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C111" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D111" t="s">
         <v>427</v>
@@ -5471,7 +5474,7 @@
         <v>428</v>
       </c>
       <c r="F111" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G111" t="s">
         <v>429</v>
@@ -5489,10 +5492,10 @@
         <v>431</v>
       </c>
       <c r="B112" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C112" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D112" t="s">
         <v>432</v>
@@ -5501,7 +5504,7 @@
         <v>433</v>
       </c>
       <c r="F112" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G112" t="s">
         <v>434</v>
@@ -5519,10 +5522,10 @@
         <v>436</v>
       </c>
       <c r="B113" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C113" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D113" t="s">
         <v>437</v>
@@ -5531,7 +5534,7 @@
         <v>438</v>
       </c>
       <c r="F113" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G113" t="s">
         <v>439</v>
@@ -5549,10 +5552,10 @@
         <v>441</v>
       </c>
       <c r="B114" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C114" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D114" t="s">
         <v>442</v>
@@ -5561,7 +5564,7 @@
         <v>443</v>
       </c>
       <c r="F114" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G114" t="s">
         <v>444</v>
@@ -5579,10 +5582,10 @@
         <v>446</v>
       </c>
       <c r="B115" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C115" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D115" t="s">
         <v>447</v>
@@ -5591,7 +5594,7 @@
         <v>448</v>
       </c>
       <c r="F115" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G115" t="s">
         <v>449</v>
@@ -5609,10 +5612,10 @@
         <v>451</v>
       </c>
       <c r="B116" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C116" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D116" t="s">
         <v>452</v>
@@ -5621,7 +5624,7 @@
         <v>453</v>
       </c>
       <c r="F116" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G116" t="s">
         <v>454</v>
@@ -5639,10 +5642,10 @@
         <v>456</v>
       </c>
       <c r="B117" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C117" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D117" t="s">
         <v>457</v>
@@ -5651,7 +5654,7 @@
         <v>458</v>
       </c>
       <c r="F117" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G117" t="s">
         <v>459</v>
@@ -5669,10 +5672,10 @@
         <v>461</v>
       </c>
       <c r="B118" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C118" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D118" t="s">
         <v>462</v>
@@ -5681,7 +5684,7 @@
         <v>463</v>
       </c>
       <c r="F118" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G118" t="s">
         <v>464</v>
@@ -5699,10 +5702,10 @@
         <v>466</v>
       </c>
       <c r="B119" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C119" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D119" t="s">
         <v>467</v>
@@ -5711,7 +5714,7 @@
         <v>468</v>
       </c>
       <c r="F119" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G119" t="s">
         <v>469</v>
@@ -5729,10 +5732,10 @@
         <v>471</v>
       </c>
       <c r="B120" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C120" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D120" t="s">
         <v>472</v>
@@ -5741,7 +5744,7 @@
         <v>473</v>
       </c>
       <c r="F120" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G120" t="s">
         <v>474</v>
@@ -5759,10 +5762,10 @@
         <v>476</v>
       </c>
       <c r="B121" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C121" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D121" t="s">
         <v>472</v>
@@ -5771,7 +5774,7 @@
         <v>473</v>
       </c>
       <c r="F121" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G121" t="s">
         <v>474</v>
@@ -5789,10 +5792,10 @@
         <v>478</v>
       </c>
       <c r="B122" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C122" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D122" t="s">
         <v>479</v>
@@ -5801,7 +5804,7 @@
         <v>480</v>
       </c>
       <c r="F122" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G122" t="s">
         <v>481</v>
@@ -5819,10 +5822,10 @@
         <v>483</v>
       </c>
       <c r="B123" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C123" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D123" t="s">
         <v>484</v>
@@ -5831,7 +5834,7 @@
         <v>485</v>
       </c>
       <c r="F123" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G123" t="s">
         <v>486</v>
@@ -5849,10 +5852,10 @@
         <v>488</v>
       </c>
       <c r="B124" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C124" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D124" t="s">
         <v>489</v>
@@ -5861,7 +5864,7 @@
         <v>490</v>
       </c>
       <c r="F124" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G124" t="s">
         <v>491</v>
@@ -5879,10 +5882,10 @@
         <v>493</v>
       </c>
       <c r="B125" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C125" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D125" t="s">
         <v>494</v>
@@ -5891,7 +5894,7 @@
         <v>495</v>
       </c>
       <c r="F125" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G125" t="s">
         <v>496</v>
@@ -5909,10 +5912,10 @@
         <v>498</v>
       </c>
       <c r="B126" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C126" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D126" t="s">
         <v>499</v>
@@ -5921,7 +5924,7 @@
         <v>500</v>
       </c>
       <c r="F126" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G126" t="s">
         <v>501</v>
@@ -5939,10 +5942,10 @@
         <v>503</v>
       </c>
       <c r="B127" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C127" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D127" t="s">
         <v>504</v>
@@ -5951,7 +5954,7 @@
         <v>505</v>
       </c>
       <c r="F127" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G127" t="s">
         <v>506</v>
@@ -5969,10 +5972,10 @@
         <v>508</v>
       </c>
       <c r="B128" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C128" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D128" t="s">
         <v>509</v>
@@ -5981,7 +5984,7 @@
         <v>510</v>
       </c>
       <c r="F128" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G128" t="s">
         <v>511</v>
@@ -5999,10 +6002,10 @@
         <v>513</v>
       </c>
       <c r="B129" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C129" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D129" t="s">
         <v>514</v>
@@ -6011,7 +6014,7 @@
         <v>515</v>
       </c>
       <c r="F129" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G129" t="s">
         <v>516</v>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -2295,10 +2295,10 @@
     <t xml:space="preserve">쓰담쓰담.</t>
   </si>
   <si>
-    <t xml:space="preserve">잘 수 없어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">조용한 밤이다.</t>
+    <t xml:space="preserve">잠이 안 와.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조용한 밤이야.</t>
   </si>
   <si>
     <t xml:space="preserve">아까부터 뒤에 뭔가 있는 것 같다.</t>
@@ -2352,7 +2352,7 @@
     <t xml:space="preserve">#3에 갈 일 있{는가}? 그럼 가는 김에, 오랫동안 못 봤던 [qFriend]에게 #2을(를) 전해 줬으면 좋겠{어}. 물론 보수도 {줄게}.
 {YOU} 그거 {알아}? #3에는 지금 #2 붐이 일어나서 온 동네가 열광하고 있다는 것 {같다}. 그런데 #2을(를) 못 얻은 [qFriend]이(가) 자꾸 울어서 참 곤란{해}. 그러니까 {I} 대신에 #3까지 이 물건을 배달해 {줘}.
 #3까지 #2을(를) 배달해 {줘}. 기한 내에 무사히 전달하면, 배달 목적지에서 보수로 #1을(를) 줄 {거야}.
-[qFriend]이(가) #3에 집을 지어서, 축하 선물로 #2을(를) 보내고 싶{어}. #1까지 배달해주지 않겠{는가}?
+[qFriend]이(가) #3에 집을 지어서, 축하 선물로 #2을(를) 보내고 싶{어}. #1을(를) 보수로 줄 테니 배달해 주지 않겠{는가}?
 배달 의뢰{다}. 뭐에 쓰려는지는 모르겠는데, [qClient]이(가) #2을(를) 구입하고 싶다는 듯 {해}. #3까지 배달해 주면 #1을(를) 지급하겠{어}.
 그거 {알아}? #3에 살고 있는 [qClient]이(가) 폐품을 회수하고 있다는 것 {같다}. #2을(를) 보내고 싶지만, 귀찮으니까 {네가} 대신 배달해 {줘}.
 #3에 사는 장래가 유망한 [qClient]이(가) #2을(를) 연구하고 있다는 것 {같다}. #2을(를) 무사히 배달하면 보수로 #1을(를) {줄게}.
@@ -2394,7 +2394,7 @@
   </si>
   <si>
     <t xml:space="preserve">슬슬 농작물들을 수확할 시기가 됐{네}. #3 근처에 있는 밭에서 무게가 #2 정도 되도록 작물들을 수확해 {줘}. 보수로 #1을(를) {줄게}. 
-이 시기가 되면 뭔가 마음이 무거워{져}. 밭에서 자란 작물들을 잔뜩 파내야 하는데 말{이다}. {I} 대신에 작물들을 #2 정도 수확해 주지 않{겠나}? 
+이 시기가 되면 뭔가 마음이 무거워{져}. 밭에서 자란 작물들을 잔뜩 파내야 하는데 말{이다}. {I} 대신에 작물들을 #2 정도 수확해 주지 않겠{는가}? 
 드디어 기다리고 기다리던 수확기{다}! 아주 힘든 건 아니지만 그래도 {I} 혼자서는 무리니, 밭일을 도와주지 않겠{는가}? 그래, #2 정도만 좀 도와{줘}.</t>
   </si>
   <si>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">はじめての出荷箱</t>
   </si>
   <si>
-    <t xml:space="preserve">Time to make money.|You have been asked by Loyted to create a shipping chest. Use the materials he provided to build the chest, place it on the ground, and then report back to Loytel. Remember to use palulu wood for the shipping chest.</t>
+    <t xml:space="preserve">Time to make money.|You have been asked by Loytel to create a shipping chest. Use the materials he provided to build the chest, place it on the ground, and then report back to Loytel. Remember to use palulu wood for the shipping chest.</t>
   </si>
   <si>
     <t xml:space="preserve">金を稼ぐぞ。|ロイテルに出荷箱を作成するよう頼まれた。彼から渡された素材を使って出荷箱を製作し、地面に設置してからロイテルに報告しよう。出荷箱には必ずパルルの木材を使う必要がある。</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="783">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1174,7 +1174,7 @@
     <t xml:space="preserve">絶望の果てに</t>
   </si>
   <si>
-    <t xml:space="preserve">#pc님, 방문을 부탁드립니다.</t>
+    <t xml:space="preserve">#pc님, 잠시 시간 좀 내 주세요.</t>
   </si>
   <si>
     <t xml:space="preserve">Please come, #pc.</t>
@@ -1336,6 +1336,9 @@
     <t xml:space="preserve">into_darkness</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">어둠으로</t>
   </si>
   <si>
@@ -1345,25 +1348,43 @@
     <t xml:space="preserve">闇へ</t>
   </si>
   <si>
-    <t xml:space="preserve">모두, 잠시 모여 주겠어?|이스시즐에게 맞설 방법을 생각해내야 한다. (계속)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone, gather up, please.|You need to find a way to deal with Issizzle. (To Be Continued)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。(続く)</t>
+    <t xml:space="preserve">모두, 잠시 모여 주겠어?|이스시즐에게 맞설 방법을 생각해내야 한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone, gather up, please.|You need to find a way to deal with Issizzle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。</t>
   </si>
   <si>
     <t xml:space="preserve">into_darkness1</t>
   </si>
   <si>
-    <t xml:space="preserve">다음 번에 계속.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be continued.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次回へ続く。</t>
+    <t xml:space="preserve">|케틀이 돌아오기를 기다리자.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Let's wait for Kettle to return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|ケトルの帰りを待とう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into_darkness4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|죽은 자의 동굴 최심부에 있는 「웅덩이」에, 어떤 액체를 떨어뜨려야만 할 것 같다. (계속)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|It seems that you must throw some kind of liquid into the "Stagnation" at the farthest depth of the Crypt of the Damned. (to be continued)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|死者の洞窟の最奥にある「淀み」に、何らかの液体を投げ入れなければならないようだ。（続く）</t>
   </si>
   <si>
     <t xml:space="preserve">negotiation_darkness</t>
@@ -1444,13 +1465,13 @@
     <t xml:space="preserve">negotiation_darkness5</t>
   </si>
   <si>
-    <t xml:space="preserve">|케틀이 돌아오기를 기다리자. (계속)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|Let's wait for Kettle to come back. (Continued)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|ケトルの帰りを待とう。（続く）</t>
+    <t xml:space="preserve">|속죄의 마을에서 볼일을 끝냈다. 케틀이 돌아오기를 기다리자.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|You have finished your business in the Village of Atonement. Let's wait for Kettle to return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|贖罪の村での用事を終えた。ケトルの帰りを待とう。</t>
   </si>
   <si>
     <t xml:space="preserve">demitas_spellwriter</t>
@@ -2848,12 +2869,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F90" activeCellId="0" sqref="F90"/>
+      <selection pane="bottomLeft" activeCell="F88" activeCellId="0" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4563,271 +4584,247 @@
         <v>434</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>299</v>
+        <v>435</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>299</v>
+        <v>435</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="H86" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B89" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>454</v>
       </c>
+      <c r="D89" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>456</v>
+      </c>
       <c r="F89" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>373</v>
+        <v>474</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>374</v>
+        <v>475</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>375</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="G95" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C95" s="0" t="s">
+      <c r="H95" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>493</v>
+        <v>177</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>373</v>
@@ -4841,1084 +4838,1159 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>498</v>
+        <v>177</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>502</v>
+        <v>374</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>502</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="H98" s="0" t="s">
         <v>498</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>502</v>
+        <v>374</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>502</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>15</v>
+        <v>505</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>15</v>
+        <v>505</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>517</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>177</v>
+        <v>505</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>570</v>
+        <v>15</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>578</v>
+        <v>15</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C112" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="H113" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="D112" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="B114" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F114" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G114" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="H112" s="0" t="s">
+      <c r="H114" s="0" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>589</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>603</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>633</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D121" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E121" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F121" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="G119" s="0" t="s">
+      <c r="G121" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="H119" s="0" t="s">
+      <c r="H121" s="0" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="H120" s="0" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>654</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B139" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="H137" s="2" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="B140" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="C140" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="B139" s="0" t="s">
+      <c r="C141" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B142" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="E139" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>775</v>
+      <c r="C142" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Quest.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
